--- a/src/test/resources/TestData/Employee Roster V2_E10-2949.xlsx
+++ b/src/test/resources/TestData/Employee Roster V2_E10-2949.xlsx
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="11">
   <si>
     <t>ROLE GROUP : RTGO Operator 2023-11-10T12:39:19.154601100</t>
   </si>
@@ -68,6 +68,13 @@
   </si>
   <si>
     <t/>
+  </si>
+  <si>
+    <t>93185599 - Joaquin Hane
+ROLE : RTGO100 2023-11-08T13:16:23.372318300</t>
+  </si>
+  <si>
+    <t>ROLE GROUP : RTGO Operator 2023-12-06T09:13:59.345</t>
   </si>
 </sst>
 </file>
@@ -440,42 +447,42 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="0">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="0">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="0">
-        <v>6</v>
+        <v>9</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s" s="0">
-        <v>7</v>
+        <v>10</v>
       </c>
     </row>
     <row r="9">

--- a/src/test/resources/TestData/Employee Roster V2_E10-2949.xlsx
+++ b/src/test/resources/TestData/Employee Roster V2_E10-2949.xlsx
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="11">
   <si>
     <t>ROLE GROUP : RTGO Operator 2023-11-10T12:39:19.154601100</t>
   </si>

--- a/src/test/resources/TestData/Employee Roster V2_E10-2949.xlsx
+++ b/src/test/resources/TestData/Employee Roster V2_E10-2949.xlsx
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="12">
   <si>
     <t>ROLE GROUP : RTGO Operator 2023-11-10T12:39:19.154601100</t>
   </si>
@@ -75,6 +75,9 @@
   </si>
   <si>
     <t>ROLE GROUP : RTGO Operator 2023-12-06T09:13:59.345</t>
+  </si>
+  <si>
+    <t>ROLE GROUP : RTGO Operator 2023-12-06T06:31:26.060</t>
   </si>
 </sst>
 </file>
@@ -482,7 +485,7 @@
     </row>
     <row r="8">
       <c r="A8" t="s" s="0">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="9">

--- a/src/test/resources/TestData/Employee Roster V2_E10-2949.xlsx
+++ b/src/test/resources/TestData/Employee Roster V2_E10-2949.xlsx
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="12">
   <si>
     <t>ROLE GROUP : RTGO Operator 2023-11-10T12:39:19.154601100</t>
   </si>

--- a/src/test/resources/TestData/Employee Roster V2_E10-2949.xlsx
+++ b/src/test/resources/TestData/Employee Roster V2_E10-2949.xlsx
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="12">
   <si>
     <t>ROLE GROUP : RTGO Operator 2023-11-10T12:39:19.154601100</t>
   </si>

--- a/src/test/resources/TestData/Employee Roster V2_E10-2949.xlsx
+++ b/src/test/resources/TestData/Employee Roster V2_E10-2949.xlsx
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="12">
   <si>
     <t>ROLE GROUP : RTGO Operator 2023-11-10T12:39:19.154601100</t>
   </si>

--- a/src/test/resources/TestData/Employee Roster V2_E10-2949.xlsx
+++ b/src/test/resources/TestData/Employee Roster V2_E10-2949.xlsx
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="12">
   <si>
     <t>ROLE GROUP : RTGO Operator 2023-11-10T12:39:19.154601100</t>
   </si>
@@ -485,7 +485,7 @@
     </row>
     <row r="8">
       <c r="A8" t="s" s="0">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="9">

--- a/src/test/resources/TestData/Employee Roster V2_E10-2949.xlsx
+++ b/src/test/resources/TestData/Employee Roster V2_E10-2949.xlsx
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="157" uniqueCount="13">
   <si>
     <t>ROLE GROUP : RTGO Operator 2023-11-10T12:39:19.154601100</t>
   </si>
@@ -78,6 +78,9 @@
   </si>
   <si>
     <t>ROLE GROUP : RTGO Operator 2023-12-06T06:31:26.060</t>
+  </si>
+  <si>
+    <t>ROLE GROUP : null</t>
   </si>
 </sst>
 </file>
@@ -450,7 +453,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>2</v>
+        <v>12</v>
       </c>
     </row>
     <row r="2">

--- a/src/test/resources/TestData/Employee Roster V2_E10-2949.xlsx
+++ b/src/test/resources/TestData/Employee Roster V2_E10-2949.xlsx
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="157" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="184" uniqueCount="18">
   <si>
     <t>ROLE GROUP : RTGO Operator 2023-11-10T12:39:19.154601100</t>
   </si>
@@ -81,6 +81,25 @@
   </si>
   <si>
     <t>ROLE GROUP : null</t>
+  </si>
+  <si>
+    <t>92457737 - Lilliana Williamson
+ROLE : RTGO100 1701844270281</t>
+  </si>
+  <si>
+    <t>90317880 - Lewis Mosciski
+ROLE : RTGO100 1701844270281</t>
+  </si>
+  <si>
+    <t>90833312 - Angelo Mueller
+ROLE : RTGO100 1701844270281</t>
+  </si>
+  <si>
+    <t>ROLE GROUP : RTGO Operator 2023-12-07T19:27:58.156908600</t>
+  </si>
+  <si>
+    <t>92970163 - Glenna Lynch
+ROLE : RTGO100 1701853905917</t>
   </si>
 </sst>
 </file>
@@ -463,32 +482,32 @@
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>4</v>
+        <v>10</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
-        <v>5</v>
+        <v>13</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="0">
-        <v>6</v>
+        <v>14</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="0">
-        <v>7</v>
+        <v>15</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="0">
-        <v>9</v>
+        <v>16</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s" s="0">
-        <v>10</v>
+        <v>17</v>
       </c>
     </row>
     <row r="9">

--- a/src/test/resources/TestData/Employee Roster V2_E10-2949.xlsx
+++ b/src/test/resources/TestData/Employee Roster V2_E10-2949.xlsx
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="184" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="238" uniqueCount="21">
   <si>
     <t>ROLE GROUP : RTGO Operator 2023-11-10T12:39:19.154601100</t>
   </si>
@@ -100,6 +100,16 @@
   <si>
     <t>92970163 - Glenna Lynch
 ROLE : RTGO100 1701853905917</t>
+  </si>
+  <si>
+    <t>ROLE GROUP : RTGO Operator 2023-12-08T06:46:06.587</t>
+  </si>
+  <si>
+    <t>ROLE GROUP : RTGO Operator 2023-12-07T19:21:53.290256700</t>
+  </si>
+  <si>
+    <t>33128455 - Mariela Gulgowski
+ROLE : RTGO100 1701954977619</t>
   </si>
 </sst>
 </file>
@@ -482,32 +492,32 @@
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>10</v>
+        <v>13</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="0">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="0">
-        <v>15</v>
+        <v>19</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="0">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s" s="0">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="9">

--- a/src/test/resources/TestData/Employee Roster V2_E10-2949.xlsx
+++ b/src/test/resources/TestData/Employee Roster V2_E10-2949.xlsx
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="238" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="247" uniqueCount="21">
   <si>
     <t>ROLE GROUP : RTGO Operator 2023-11-10T12:39:19.154601100</t>
   </si>
@@ -507,17 +507,17 @@
     </row>
     <row r="6">
       <c r="A6" t="s" s="0">
-        <v>19</v>
+        <v>16</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="0">
-        <v>20</v>
+        <v>17</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s" s="0">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="9">

--- a/src/test/resources/TestData/Employee Roster V2_E10-2949.xlsx
+++ b/src/test/resources/TestData/Employee Roster V2_E10-2949.xlsx
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="247" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="256" uniqueCount="21">
   <si>
     <t>ROLE GROUP : RTGO Operator 2023-11-10T12:39:19.154601100</t>
   </si>

--- a/src/test/resources/TestData/Employee Roster V2_E10-2949.xlsx
+++ b/src/test/resources/TestData/Employee Roster V2_E10-2949.xlsx
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="256" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="265" uniqueCount="21">
   <si>
     <t>ROLE GROUP : RTGO Operator 2023-11-10T12:39:19.154601100</t>
   </si>
@@ -507,17 +507,17 @@
     </row>
     <row r="6">
       <c r="A6" t="s" s="0">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="0">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s" s="0">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="9">

--- a/src/test/resources/TestData/Employee Roster V2_E10-2949.xlsx
+++ b/src/test/resources/TestData/Employee Roster V2_E10-2949.xlsx
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="265" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="283" uniqueCount="23">
   <si>
     <t>ROLE GROUP : RTGO Operator 2023-11-10T12:39:19.154601100</t>
   </si>
@@ -110,6 +110,14 @@
   <si>
     <t>33128455 - Mariela Gulgowski
 ROLE : RTGO100 1701954977619</t>
+  </si>
+  <si>
+    <t>89664109 - Dorla Kuhic
+ROLE : RTGO100 1701956971735</t>
+  </si>
+  <si>
+    <t>88788500 - Julee Rowe
+ROLE : RTGO100 1701956971735</t>
   </si>
 </sst>
 </file>
@@ -507,17 +515,17 @@
     </row>
     <row r="6">
       <c r="A6" t="s" s="0">
-        <v>20</v>
+        <v>17</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="0">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s" s="0">
-        <v>17</v>
+        <v>22</v>
       </c>
     </row>
     <row r="9">

--- a/src/test/resources/TestData/Employee Roster V2_E10-2949.xlsx
+++ b/src/test/resources/TestData/Employee Roster V2_E10-2949.xlsx
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="283" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="292" uniqueCount="23">
   <si>
     <t>ROLE GROUP : RTGO Operator 2023-11-10T12:39:19.154601100</t>
   </si>

--- a/src/test/resources/TestData/Employee Roster V2_E10-2949.xlsx
+++ b/src/test/resources/TestData/Employee Roster V2_E10-2949.xlsx
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="292" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="377" uniqueCount="26">
   <si>
     <t>ROLE GROUP : RTGO Operator 2023-11-10T12:39:19.154601100</t>
   </si>
@@ -118,6 +118,16 @@
   <si>
     <t>88788500 - Julee Rowe
 ROLE : RTGO100 1701956971735</t>
+  </si>
+  <si>
+    <t>32695715 - Odell Carter
+ROLE : QCO 1705763439984</t>
+  </si>
+  <si>
+    <t>ROLE GROUP : RTGO Operator 2024-01-09T10:07:14.855048200</t>
+  </si>
+  <si>
+    <t>OFF</t>
   </si>
 </sst>
 </file>
@@ -482,7 +492,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:A9"/>
+  <dimension ref="A1:A10"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -500,36 +510,41 @@
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>13</v>
+        <v>23</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="0">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="0">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="0">
-        <v>21</v>
+        <v>17</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s" s="0">
-        <v>22</v>
+        <v>24</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="0">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="s" s="0">
         <v>8</v>
       </c>
     </row>

--- a/src/test/resources/TestData/Employee Roster V2_E10-2949.xlsx
+++ b/src/test/resources/TestData/Employee Roster V2_E10-2949.xlsx
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="377" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="395" uniqueCount="27">
   <si>
     <t>ROLE GROUP : RTGO Operator 2023-11-10T12:39:19.154601100</t>
   </si>
@@ -128,6 +128,10 @@
   </si>
   <si>
     <t>OFF</t>
+  </si>
+  <si>
+    <t>32695715 - Odell Carter
+ROLE : QCO 1705835784686</t>
   </si>
 </sst>
 </file>
@@ -510,7 +514,7 @@
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>23</v>
+        <v>26</v>
       </c>
     </row>
     <row r="4">

--- a/src/test/resources/TestData/Employee Roster V2_E10-2949.xlsx
+++ b/src/test/resources/TestData/Employee Roster V2_E10-2949.xlsx
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="395" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="405" uniqueCount="29">
   <si>
     <t>ROLE GROUP : RTGO Operator 2023-11-10T12:39:19.154601100</t>
   </si>
@@ -132,6 +132,14 @@
   <si>
     <t>32695715 - Odell Carter
 ROLE : QCO 1705835784686</t>
+  </si>
+  <si>
+    <t>32426530 - Russel Bergstrom
+ROLE : QCO 1706020141934</t>
+  </si>
+  <si>
+    <t>32695715 - Odell Carter
+ROLE : QCO 1706021777804</t>
   </si>
 </sst>
 </file>
@@ -509,37 +517,37 @@
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>3</v>
+        <v>27</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>26</v>
+        <v>3</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
-        <v>13</v>
+        <v>28</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="0">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="0">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="0">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s" s="0">
-        <v>24</v>
+        <v>17</v>
       </c>
     </row>
     <row r="9">

--- a/src/test/resources/TestData/Employee Roster V2_E10-2949.xlsx
+++ b/src/test/resources/TestData/Employee Roster V2_E10-2949.xlsx
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="405" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="424" uniqueCount="30">
   <si>
     <t>ROLE GROUP : RTGO Operator 2023-11-10T12:39:19.154601100</t>
   </si>
@@ -140,6 +140,10 @@
   <si>
     <t>32695715 - Odell Carter
 ROLE : QCO 1706021777804</t>
+  </si>
+  <si>
+    <t>32426530 - Russel Bergstrom
+ROLE : QCO 1706083928031</t>
   </si>
 </sst>
 </file>
@@ -517,7 +521,7 @@
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>27</v>
+        <v>29</v>
       </c>
     </row>
     <row r="3">

--- a/src/test/resources/TestData/Employee Roster V2_E10-2949.xlsx
+++ b/src/test/resources/TestData/Employee Roster V2_E10-2949.xlsx
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="424" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="434" uniqueCount="30">
   <si>
     <t>ROLE GROUP : RTGO Operator 2023-11-10T12:39:19.154601100</t>
   </si>

--- a/src/test/resources/TestData/Employee Roster V2_E10-2949.xlsx
+++ b/src/test/resources/TestData/Employee Roster V2_E10-2949.xlsx
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="434" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="444" uniqueCount="31">
   <si>
     <t>ROLE GROUP : RTGO Operator 2023-11-10T12:39:19.154601100</t>
   </si>
@@ -144,6 +144,10 @@
   <si>
     <t>32426530 - Russel Bergstrom
 ROLE : QCO 1706083928031</t>
+  </si>
+  <si>
+    <t>13292186 - Lamont Champlin
+ROLE : QCO 1706187312887</t>
   </si>
 </sst>
 </file>
@@ -521,7 +525,7 @@
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="3">
@@ -531,32 +535,32 @@
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
-        <v>28</v>
+        <v>13</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="0">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="0">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="0">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s" s="0">
-        <v>17</v>
+        <v>24</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="0">
-        <v>8</v>
+        <v>25</v>
       </c>
     </row>
     <row r="10">

--- a/src/test/resources/TestData/Employee Roster V2_E10-2949.xlsx
+++ b/src/test/resources/TestData/Employee Roster V2_E10-2949.xlsx
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="444" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="453" uniqueCount="32">
   <si>
     <t>ROLE GROUP : RTGO Operator 2023-11-10T12:39:19.154601100</t>
   </si>
@@ -148,6 +148,10 @@
   <si>
     <t>13292186 - Lamont Champlin
 ROLE : QCO 1706187312887</t>
+  </si>
+  <si>
+    <t>68306525 - Danielle Gaylord
+ROLE : QCO 2023-11-24T09:25:13.428483500</t>
   </si>
 </sst>
 </file>
@@ -525,32 +529,32 @@
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>30</v>
+        <v>3</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>3</v>
+        <v>13</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="0">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="0">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="0">
-        <v>17</v>
+        <v>31</v>
       </c>
     </row>
     <row r="8">
@@ -560,7 +564,7 @@
     </row>
     <row r="9">
       <c r="A9" t="s" s="0">
-        <v>25</v>
+        <v>8</v>
       </c>
     </row>
     <row r="10">

--- a/src/test/resources/TestData/Employee Roster V2_E10-2949.xlsx
+++ b/src/test/resources/TestData/Employee Roster V2_E10-2949.xlsx
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="453" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="462" uniqueCount="32">
   <si>
     <t>ROLE GROUP : RTGO Operator 2023-11-10T12:39:19.154601100</t>
   </si>
@@ -554,12 +554,12 @@
     </row>
     <row r="7">
       <c r="A7" t="s" s="0">
-        <v>31</v>
+        <v>24</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s" s="0">
-        <v>24</v>
+        <v>7</v>
       </c>
     </row>
     <row r="9">

--- a/src/test/resources/TestData/Employee Roster V2_E10-2949.xlsx
+++ b/src/test/resources/TestData/Employee Roster V2_E10-2949.xlsx
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="462" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="471" uniqueCount="32">
   <si>
     <t>ROLE GROUP : RTGO Operator 2023-11-10T12:39:19.154601100</t>
   </si>

--- a/src/test/resources/TestData/Employee Roster V2_E10-2949.xlsx
+++ b/src/test/resources/TestData/Employee Roster V2_E10-2949.xlsx
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="471" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="481" uniqueCount="33">
   <si>
     <t>ROLE GROUP : RTGO Operator 2023-11-10T12:39:19.154601100</t>
   </si>
@@ -152,6 +152,10 @@
   <si>
     <t>68306525 - Danielle Gaylord
 ROLE : QCO 2023-11-24T09:25:13.428483500</t>
+  </si>
+  <si>
+    <t>97867863 - Lonna Swift
+ROLE : QCO 1706842155256</t>
   </si>
 </sst>
 </file>
@@ -554,17 +558,17 @@
     </row>
     <row r="7">
       <c r="A7" t="s" s="0">
-        <v>24</v>
+        <v>32</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s" s="0">
-        <v>7</v>
+        <v>24</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="0">
-        <v>8</v>
+        <v>25</v>
       </c>
     </row>
     <row r="10">

--- a/src/test/resources/TestData/Employee Roster V2_E10-2949.xlsx
+++ b/src/test/resources/TestData/Employee Roster V2_E10-2949.xlsx
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="481" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="501" uniqueCount="34">
   <si>
     <t>ROLE GROUP : RTGO Operator 2023-11-10T12:39:19.154601100</t>
   </si>
@@ -156,6 +156,10 @@
   <si>
     <t>97867863 - Lonna Swift
 ROLE : QCO 1706842155256</t>
+  </si>
+  <si>
+    <t>97867863 - Lonna Swift
+ROLE : QCO 1707040451731</t>
   </si>
 </sst>
 </file>
@@ -558,7 +562,7 @@
     </row>
     <row r="7">
       <c r="A7" t="s" s="0">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="8">

--- a/src/test/resources/TestData/Employee Roster V2_E10-2949.xlsx
+++ b/src/test/resources/TestData/Employee Roster V2_E10-2949.xlsx
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="501" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="511" uniqueCount="34">
   <si>
     <t>ROLE GROUP : RTGO Operator 2023-11-10T12:39:19.154601100</t>
   </si>

--- a/src/test/resources/TestData/Employee Roster V2_E10-2949.xlsx
+++ b/src/test/resources/TestData/Employee Roster V2_E10-2949.xlsx
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="511" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="520" uniqueCount="35">
   <si>
     <t>ROLE GROUP : RTGO Operator 2023-11-10T12:39:19.154601100</t>
   </si>
@@ -160,6 +160,10 @@
   <si>
     <t>97867863 - Lonna Swift
 ROLE : QCO 1707040451731</t>
+  </si>
+  <si>
+    <t>97867863 - Lonna Swift
+ROLE : QCO 1707209290469</t>
   </si>
 </sst>
 </file>
@@ -562,7 +566,7 @@
     </row>
     <row r="7">
       <c r="A7" t="s" s="0">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="8">
@@ -572,7 +576,7 @@
     </row>
     <row r="9">
       <c r="A9" t="s" s="0">
-        <v>25</v>
+        <v>8</v>
       </c>
     </row>
     <row r="10">

--- a/src/test/resources/TestData/Employee Roster V2_E10-2949.xlsx
+++ b/src/test/resources/TestData/Employee Roster V2_E10-2949.xlsx
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="520" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="596" uniqueCount="44">
   <si>
     <t>ROLE GROUP : RTGO Operator 2023-11-10T12:39:19.154601100</t>
   </si>
@@ -164,6 +164,35 @@
   <si>
     <t>97867863 - Lonna Swift
 ROLE : QCO 1707209290469</t>
+  </si>
+  <si>
+    <t>97867863 - Lonna Swift
+ROLE : QCO 1707360168268</t>
+  </si>
+  <si>
+    <t>ROLE GROUP : RTGO Operator 2024-01-19T07:51:03.113</t>
+  </si>
+  <si>
+    <t>ROLE GROUP : RTGO Operator 2024-01-20T06:10:17.880</t>
+  </si>
+  <si>
+    <t>ROLE GROUP : RTGO Operator 2024-01-20T15:30:51.575</t>
+  </si>
+  <si>
+    <t>ROLE GROUP : RTGO Operator 2024-01-20T23:18:46.662307400</t>
+  </si>
+  <si>
+    <t>ROLE GROUP : RTGO Operator 2024-01-20T18:13:10.682</t>
+  </si>
+  <si>
+    <t>ROLE GROUP : RTGO Operator 2024-01-31T15:40:58.168</t>
+  </si>
+  <si>
+    <t>ROLE GROUP : RTGO Operator 2024-01-31T20:22:53.301</t>
+  </si>
+  <si>
+    <t>97867863 - Lonna Swift
+ROLE : QCO 1707369529036</t>
   </si>
 </sst>
 </file>
@@ -566,7 +595,7 @@
     </row>
     <row r="7">
       <c r="A7" t="s" s="0">
-        <v>34</v>
+        <v>43</v>
       </c>
     </row>
     <row r="8">
